--- a/testCasesSample.xlsx
+++ b/testCasesSample.xlsx
@@ -1,223 +1,328 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC2B86-1147-4F45-A161-6E9810F544F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCaseTemplate" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TestCaseTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">Test Case Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCaseId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description/Test Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-requisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Executed By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoogleSearch_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search_Bar_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that when a user writes a search term and presses enter, search results should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser is launched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Write the url - http://google.com in the browser's URL bar and press enter.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+  <si>
+    <t>Test Case Template</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Description/Test Summary</t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test Executed By</t>
+  </si>
+  <si>
+    <t>GoogleSearch_1</t>
+  </si>
+  <si>
+    <t>Search_Bar_Module</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Verify that when a user writes a search term and presses enter, search results should be displayed</t>
+  </si>
+  <si>
+    <t>Browser is launched</t>
+  </si>
+  <si>
+    <t>1. Write the url - http://google.com in the browser's URL bar and press enter.
 2. Once google.com is launched, write the search term - "Apple" in the google search bar.
 3. Press enter.</t>
   </si>
   <si>
-    <t xml:space="preserve">Search results related to 'apple' should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search results with 'apple' keyword are displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket_Booking_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify user can successfully book a ticket for an available show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System is launched, user is logged in, shows are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to "Now Showing" page&lt;br&gt;2. Select a movie&lt;br&gt;3. Select date and showtime&lt;br&gt;4. Select 2 available seats&lt;br&gt;5. Click "Proceed to Payment"&lt;br&gt;6. Enter payment details&lt;br&gt;7. Confirm booking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking confirmation page displays with correct movie, seats, time, and unique booking ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking confirmation page displays with correct details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify user can login with valid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System is launched, user has registered account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to login page&lt;br&gt;2. Enter valid username&lt;br&gt;3. Enter valid password&lt;br&gt;4. Click "Login" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is authenticated and directed to home page with personalized greeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User successfully logged in and greeted by name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment_Processing_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify payment processing with valid credit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User has selected seats and is on payment page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter valid credit card number&lt;br&gt;2. Enter expiration date&lt;br&gt;3. Enter CVV&lt;br&gt;4. Enter cardholder name&lt;br&gt;5. Click "Process Payment"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment is processed successfully, confirmation message appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment processed, confirmation received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seat_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seat_Selection_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify seats are marked as unavailable after booking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System is launched, movie/showtime selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Select and book seats A1 and A2&lt;br&gt;2. Complete booking process&lt;br&gt;3. Log out&lt;br&gt;4. Login with different account&lt;br&gt;5. Navigate to same movie/showtime&lt;br&gt;6. View seat selection screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seats A1 and A2 appear as unavailable (red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seats A1 and A2 marked as unavailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie_Search_Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify search functionality returns relevant results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System is launched, movies database populated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on search bar&lt;br&gt;2. Enter search term "Action"&lt;br&gt;3. Press search button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results page displays only movies with Action genre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Action movies displayed in results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TesterE</t>
+    <t>Search results related to 'apple' should be displayed</t>
+  </si>
+  <si>
+    <t>Search results with 'apple' keyword are displayed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TesterK</t>
+  </si>
+  <si>
+    <t>Booking_001</t>
+  </si>
+  <si>
+    <t>Ticket_Booking_Module</t>
+  </si>
+  <si>
+    <t>Verify user can successfully book a ticket for an available show</t>
+  </si>
+  <si>
+    <t>System is launched, user is logged in, shows are available</t>
+  </si>
+  <si>
+    <t>1. Navigate to "Now Showing" page&lt;br&gt;2. Select a movie&lt;br&gt;3. Select date and showtime&lt;br&gt;4. Select 2 available seats&lt;br&gt;5. Click "Proceed to Payment"&lt;br&gt;6. Enter payment details&lt;br&gt;7. Confirm booking</t>
+  </si>
+  <si>
+    <t>Booking confirmation page displays with correct movie, seats, time, and unique booking ID</t>
+  </si>
+  <si>
+    <t>Booking confirmation page displays with correct details</t>
+  </si>
+  <si>
+    <t>TesterA</t>
+  </si>
+  <si>
+    <t>Login_001</t>
+  </si>
+  <si>
+    <t>Authentication_Module</t>
+  </si>
+  <si>
+    <t>Verify user can login with valid credentials</t>
+  </si>
+  <si>
+    <t>System is launched, user has registered account</t>
+  </si>
+  <si>
+    <t>1. Navigate to login page&lt;br&gt;2. Enter valid username&lt;br&gt;3. Enter valid password&lt;br&gt;4. Click "Login" button</t>
+  </si>
+  <si>
+    <t>User is authenticated and directed to home page with personalized greeting</t>
+  </si>
+  <si>
+    <t>User successfully logged in and greeted by name</t>
+  </si>
+  <si>
+    <t>TesterB</t>
+  </si>
+  <si>
+    <t>Payment_001</t>
+  </si>
+  <si>
+    <t>Payment_Processing_Module</t>
+  </si>
+  <si>
+    <t>Verify payment processing with valid credit card</t>
+  </si>
+  <si>
+    <t>User has selected seats and is on payment page</t>
+  </si>
+  <si>
+    <t>1. Enter valid credit card number&lt;br&gt;2. Enter expiration date&lt;br&gt;3. Enter CVV&lt;br&gt;4. Enter cardholder name&lt;br&gt;5. Click "Process Payment"</t>
+  </si>
+  <si>
+    <t>Payment is processed successfully, confirmation message appears</t>
+  </si>
+  <si>
+    <t>Payment processed, confirmation received</t>
+  </si>
+  <si>
+    <t>TesterC</t>
+  </si>
+  <si>
+    <t>Seat_001</t>
+  </si>
+  <si>
+    <t>Seat_Selection_Module</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Verify seats are marked as unavailable after booking</t>
+  </si>
+  <si>
+    <t>System is launched, movie/showtime selected</t>
+  </si>
+  <si>
+    <t>1. Select and book seats A1 and A2&lt;br&gt;2. Complete booking process&lt;br&gt;3. Log out&lt;br&gt;4. Login with different account&lt;br&gt;5. Navigate to same movie/showtime&lt;br&gt;6. View seat selection screen</t>
+  </si>
+  <si>
+    <t>Seats A1 and A2 appear as unavailable (red)</t>
+  </si>
+  <si>
+    <t>Seats A1 and A2 marked as unavailable</t>
+  </si>
+  <si>
+    <t>TesterD</t>
+  </si>
+  <si>
+    <t>Search_001</t>
+  </si>
+  <si>
+    <t>Movie_Search_Module</t>
+  </si>
+  <si>
+    <t>Verify search functionality returns relevant results</t>
+  </si>
+  <si>
+    <t>System is launched, movies database populated</t>
+  </si>
+  <si>
+    <t>1. Click on search bar&lt;br&gt;2. Enter search term "Action"&lt;br&gt;3. Press search button</t>
+  </si>
+  <si>
+    <t>Results page displays only movies with Action genre</t>
+  </si>
+  <si>
+    <t>Only Action movies displayed in results</t>
+  </si>
+  <si>
+    <t>TesterE</t>
+  </si>
+  <si>
+    <t>Registration_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that new users can register successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System is launced </t>
+  </si>
+  <si>
+    <t>User has created a new account and a  conformation message is displayed letting them know they can now login</t>
+  </si>
+  <si>
+    <t>User has a new account and is able to login with it</t>
+  </si>
+  <si>
+    <t>Admin_001</t>
+  </si>
+  <si>
+    <t>Admin_Module</t>
+  </si>
+  <si>
+    <t>Verify that the admin is able to add a new movie with date and time along with theaters showing</t>
+  </si>
+  <si>
+    <t>System is launched, Admin is logged in</t>
+  </si>
+  <si>
+    <t>The new movie with all of its information is successfully uploaded into the database and can be seen on both admin and user side</t>
+  </si>
+  <si>
+    <t>The new movie can now be seen on admin and user side</t>
+  </si>
+  <si>
+    <t>TesterF</t>
+  </si>
+  <si>
+    <t>TesterG</t>
+  </si>
+  <si>
+    <t>Apply_Discount_001</t>
+  </si>
+  <si>
+    <t>Verify that the user's discount code can apply to this purchase</t>
+  </si>
+  <si>
+    <t>System is launched, User has selected seats and is in checkout</t>
+  </si>
+  <si>
+    <t>The discount is applied and reduces the user's cost. The old and new price should also be displayed to show much the user saved</t>
+  </si>
+  <si>
+    <t>The user sees that their total price has been reduced</t>
+  </si>
+  <si>
+    <t>TesterH</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Logout_001</t>
+  </si>
+  <si>
+    <t>Verify that the user can successfully log out</t>
+  </si>
+  <si>
+    <t>System is launched,User is logged in</t>
+  </si>
+  <si>
+    <t>The user is logged out and redirected to the login page</t>
+  </si>
+  <si>
+    <t>The user is sent to login page after confirming log out</t>
+  </si>
+  <si>
+    <t>Search_Invalid_001</t>
+  </si>
+  <si>
+    <t>System is launched, movie database populated</t>
+  </si>
+  <si>
+    <t>Verify that the movie the user has searched for is invalid</t>
+  </si>
+  <si>
+    <t>The user is showed an almost empty screen with the words "No movie of that name can be found" and is redirected back to the "Now Showing" page</t>
+  </si>
+  <si>
+    <t>The user is shown a message letting them know what they are looking for is not here and can search again</t>
+  </si>
+  <si>
+    <t>Tester E</t>
+  </si>
+  <si>
+    <t>1. Navigate to Registration page&lt;br&gt;2. Enter personal information and create a email and password&lt;br&gt;3. Click 'Register' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The admin navigates to the "Add Movie" page&lt;br&gt;2. The admin enters all the movie details&lt;br&gt;3.The admin clicks the confirm button </t>
+  </si>
+  <si>
+    <t>1.The user inputs a valid discount code in the specified area&lt;br&gt;2. The user clicks the "Apply" button</t>
+  </si>
+  <si>
+    <t>1. The user navigates to log out button&lt;br&gt;2. The user pushed this button and is asked to confirm if they want to log out</t>
+  </si>
+  <si>
+    <t>1. The user navigates to the "Now Showing" page&lt;br&gt;2. The user clicks on the search bar&lt;br&gt;3. The user inputs an invalid title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,22 +331,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -249,7 +346,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -285,92 +382,64 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{93F87388-A287-43CE-814E-CAFDFD2E469E}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -429,47 +498,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -477,12 +562,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -511,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -532,7 +617,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -583,7 +668,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -601,40 +686,39 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +732,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -680,7 +764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -712,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -724,7 +808,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -756,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -788,7 +872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -820,7 +904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -852,7 +936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -882,18 +966,173 @@
       </c>
       <c r="J9" s="8" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>